--- a/storage/app/templates/kompetensi_template.xlsx
+++ b/storage/app/templates/kompetensi_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16490B6-E5CE-48E4-A2C0-DA2A025C830F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3613CF7-85BD-423E-BB52-D600A194D1D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NIP</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Unit Kerja</t>
-  </si>
-  <si>
-    <t>Jabatan</t>
-  </si>
-  <si>
-    <t>Pendidikan</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
   </si>
   <si>
     <t>Tujuan Pemeriksaan</t>
@@ -148,6 +133,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -186,13 +172,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,205 +519,175 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-    </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="13">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="X1:AA1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/storage/app/templates/kompetensi_template.xlsx
+++ b/storage/app/templates/kompetensi_template.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3613CF7-85BD-423E-BB52-D600A194D1D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D470855F-F8F0-45EC-85DD-0E1B07BB8C6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NIP</t>
   </si>
@@ -101,39 +102,17 @@
   </si>
   <si>
     <t>Kekuatan Pengawasan</t>
-  </si>
-  <si>
-    <t>Fungsi Kognitif</t>
-  </si>
-  <si>
-    <t>Fungsi Interaksional</t>
-  </si>
-  <si>
-    <t>Fungsi Emosional</t>
-  </si>
-  <si>
-    <t>Fungsi Sikap Kerja</t>
-  </si>
-  <si>
-    <t>Fungsi Manajerial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -151,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,24 +145,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,11 +560,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,165 +572,216 @@
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-  </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F6F06E-D8B1-450B-A5E3-25B4E4D75858}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/storage/app/templates/kompetensi_template.xlsx
+++ b/storage/app/templates/kompetensi_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D470855F-F8F0-45EC-85DD-0E1B07BB8C6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,27 +198,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,7 +250,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7974BC0F-7D55-4BCC-BE42-9363413E83B9}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -556,216 +552,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="11"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="11"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="11"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -775,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F6F06E-D8B1-450B-A5E3-25B4E4D75858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/storage/app/templates/kompetensi_template.xlsx
+++ b/storage/app/templates/kompetensi_template.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -559,7 +558,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -769,16 +768,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/storage/app/templates/kompetensi_template.xlsx
+++ b/storage/app/templates/kompetensi_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\pmo-project\storage\app\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0475B077-0196-484F-966E-FEB1010D1931}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +28,6 @@
     <t>Tujuan Pemeriksaan</t>
   </si>
   <si>
-    <t>Tanggal Pelaksanaan</t>
-  </si>
-  <si>
     <t>Efisiensi Kecerdasan</t>
   </si>
   <si>
@@ -95,12 +98,15 @@
   </si>
   <si>
     <t>Kekuatan Pengawasan</t>
+  </si>
+  <si>
+    <t>Tanggal Pelaksanaan (YYYY-MM-DD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +255,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -308,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -559,41 +599,41 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="20" max="20" width="22.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,82 +641,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -705,7 +745,7 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -734,7 +774,7 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
